--- a/Gateway/Content/mauKHtuan.xlsx
+++ b/Gateway/Content/mauKHtuan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\netcore\Gateway\Gateway\Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0687EF5A-957E-40DE-9529-4186D395E83F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052C1B11-3E08-41B5-AE70-4C1871B0ABB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -164,16 +164,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -186,7 +182,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -470,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:E124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,40 +483,34 @@
     <col min="5" max="5" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -535,577 +527,869 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="9"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="9"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="9"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="9"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="9"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="9"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="9"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="9"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="9"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="9"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="9"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="9"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="9"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="9"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="9"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="9"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="9"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="9"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="9"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="9"/>
+      <c r="A25" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="9"/>
+      <c r="A26" s="8"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="9"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="9"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="9"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="9"/>
+      <c r="A30" s="8"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="9"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="9"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="9"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="9"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="9"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="9"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="9"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="9"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="9"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="9"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="9"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-      <c r="B42" s="9"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
-      <c r="B43" s="9"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B44" s="9"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
-      <c r="B45" s="9"/>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="10"/>
-      <c r="B46" s="9"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
-      <c r="B47" s="9"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="10"/>
-      <c r="B48" s="9"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="10"/>
-      <c r="B49" s="9"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
-      <c r="B50" s="9"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
-      <c r="B51" s="9"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="10"/>
-      <c r="B52" s="9"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="10"/>
-      <c r="B53" s="9"/>
+      <c r="A53" s="8"/>
+      <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="10"/>
-      <c r="B54" s="9"/>
+      <c r="A54" s="8"/>
+      <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="10"/>
-      <c r="B55" s="9"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="10"/>
-      <c r="B56" s="9"/>
+      <c r="A56" s="8"/>
+      <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B57" s="9"/>
+      <c r="A57" s="8"/>
+      <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="10"/>
-      <c r="B58" s="9"/>
+      <c r="A58" s="8"/>
+      <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="10"/>
-      <c r="B59" s="9"/>
+      <c r="A59" s="8"/>
+      <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="10"/>
-      <c r="B60" s="9"/>
+      <c r="A60" s="8"/>
+      <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="10"/>
-      <c r="B61" s="9"/>
+      <c r="A61" s="8"/>
+      <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="10"/>
-      <c r="B62" s="9"/>
+      <c r="A62" s="8"/>
+      <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="10"/>
-      <c r="B63" s="9"/>
+      <c r="A63" s="8"/>
+      <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="10"/>
-      <c r="B64" s="9"/>
+      <c r="A64" s="8"/>
+      <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="10"/>
-      <c r="B65" s="9"/>
+      <c r="A65" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="10"/>
-      <c r="B66" s="9"/>
+    <row r="66" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="8"/>
+      <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="10"/>
-      <c r="B67" s="9"/>
+      <c r="A67" s="8"/>
+      <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="10"/>
-      <c r="B68" s="9"/>
+      <c r="A68" s="8"/>
+      <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="10"/>
-      <c r="B69" s="9"/>
+      <c r="A69" s="8"/>
+      <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B70" s="9"/>
+      <c r="A70" s="8"/>
+      <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="10"/>
-      <c r="B71" s="9"/>
+      <c r="A71" s="8"/>
+      <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="10"/>
-      <c r="B72" s="9"/>
+      <c r="A72" s="8"/>
+      <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="10"/>
-      <c r="B73" s="9"/>
+      <c r="A73" s="8"/>
+      <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="10"/>
-      <c r="B74" s="9"/>
+      <c r="A74" s="8"/>
+      <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="10"/>
-      <c r="B75" s="9"/>
+      <c r="A75" s="8"/>
+      <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="10"/>
-      <c r="B76" s="9"/>
+      <c r="A76" s="8"/>
+      <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="10"/>
-      <c r="B77" s="9"/>
+      <c r="A77" s="8"/>
+      <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="10"/>
-      <c r="B78" s="9"/>
+      <c r="A78" s="8"/>
+      <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="10"/>
-      <c r="B79" s="9"/>
+      <c r="A79" s="8"/>
+      <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="10"/>
-      <c r="B80" s="9"/>
+      <c r="A80" s="8"/>
+      <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="10"/>
-      <c r="B81" s="9"/>
+      <c r="A81" s="8"/>
+      <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="10"/>
-      <c r="B82" s="9"/>
+      <c r="A82" s="8"/>
+      <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
     </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="8"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="8"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="8"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="8"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="8"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="8"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="8"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="8"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="8"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="8"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="8"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="8"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="8"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="8"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="8"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="8"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="8"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="8"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="8"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="8"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="8"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="8"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="8"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="8"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="8"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="8"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="8"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="8"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="8"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="8"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="8"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="8"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="8"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="8"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="8"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="8"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="8"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="8"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="8"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="8"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A5:A24"/>
+    <mergeCell ref="A105:A124"/>
+    <mergeCell ref="A25:A44"/>
+    <mergeCell ref="A45:A64"/>
+    <mergeCell ref="A65:A84"/>
+    <mergeCell ref="A85:A104"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A5:A17"/>
-    <mergeCell ref="A70:A82"/>
-    <mergeCell ref="A18:A30"/>
-    <mergeCell ref="A31:A43"/>
-    <mergeCell ref="A44:A56"/>
-    <mergeCell ref="A57:A69"/>
   </mergeCells>
   <pageMargins left="0.2" right="0" top="0" bottom="0" header="0" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
